--- a/rpa_projects_database.xlsx
+++ b/rpa_projects_database.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielaRosenstein\rpa_project_estimator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8894C1-C0E8-402F-A234-8C86E0B02DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="projects" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>project_id</t>
   </si>
@@ -116,12 +122,6 @@
   </si>
   <si>
     <t>P0001</t>
-  </si>
-  <si>
-    <t>Socket Log Analysis</t>
-  </si>
-  <si>
-    <t>Engineering</t>
   </si>
   <si>
     <t>Data Processing</t>
@@ -151,8 +151,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,13 +215,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,7 +267,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -293,6 +301,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -327,9 +336,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,14 +512,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,27 +622,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2">
         <v>10</v>
@@ -645,10 +651,10 @@
         <v>1300</v>
       </c>
       <c r="N2">
-        <v>0.9454545454545454</v>
+        <v>0.94545454545454544</v>
       </c>
       <c r="O2">
-        <v>0.7563636363636363</v>
+        <v>0.75636363636363635</v>
       </c>
       <c r="P2">
         <v>2</v>
@@ -663,46 +669,46 @@
         <v>100</v>
       </c>
       <c r="T2">
-        <v>0.9099999999999999</v>
+        <v>0.90999999999999992</v>
       </c>
       <c r="U2">
         <v>4.55</v>
       </c>
       <c r="V2">
-        <v>7.689500000000001</v>
+        <v>7.6895000000000007</v>
       </c>
       <c r="W2">
-        <v>7689.500000000001</v>
+        <v>7689.5000000000009</v>
       </c>
       <c r="X2">
-        <v>55063.27272727273</v>
+        <v>55063.272727272728</v>
       </c>
       <c r="Y2">
-        <v>616.0839160839159</v>
+        <v>616.08391608391594</v>
       </c>
       <c r="Z2">
         <v>1.67578125</v>
       </c>
       <c r="AA2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB2">
-        <v>80.01272727272728</v>
+        <v>80.012727272727275</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>41</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
